--- a/data/raw/from_proposal/chemical_data.xlsx
+++ b/data/raw/from_proposal/chemical_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gufeng/2025_winter/Thesis_Project/ThesisProject/Project/data/raw/from_proposal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gufeng/2025_winter/Thesis_Project/ThesisProject/Project_Code/data/raw/from_proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A498304-D278-0E45-99A2-9CDFC21F23D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74549198-5A97-2844-871E-4AE91009C69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15440" xr2:uid="{F133B421-4C2B-FD4B-A91D-8FC2BEC77FD4}"/>
   </bookViews>
@@ -436,7 +436,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -469,6 +469,35 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -522,7 +551,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -553,6 +582,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,7 +909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C17AF7-F66B-1642-9CF8-245F2EFD2369}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="117" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:XFD92"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -9528,98 +9568,98 @@
         <v>7.6422773286476504</v>
       </c>
     </row>
-    <row r="92" spans="1:31">
-      <c r="A92" s="6" t="s">
+    <row r="92" spans="1:31" s="16" customFormat="1">
+      <c r="A92" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="13">
         <v>4024</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="13">
         <v>2.7810000000000001</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="13">
         <v>0.2545</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="13">
         <v>17360</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="13">
         <v>2.621</v>
       </c>
-      <c r="G92" s="7">
+      <c r="G92" s="13">
         <v>4.843</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H92" s="13">
         <v>67.53</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I92" s="13">
         <v>108.6</v>
       </c>
-      <c r="J92" s="7">
+      <c r="J92" s="13">
         <v>11080</v>
       </c>
-      <c r="K92" s="7">
+      <c r="K92" s="13">
         <v>6.2969999999999997</v>
       </c>
-      <c r="L92" s="7">
+      <c r="L92" s="13">
         <v>586.1</v>
       </c>
-      <c r="M92" s="7">
+      <c r="M92" s="13">
         <v>7861</v>
       </c>
-      <c r="N92" s="7">
+      <c r="N92" s="13">
         <v>137.5</v>
       </c>
-      <c r="O92" s="7">
+      <c r="O92" s="13">
         <v>126.6</v>
       </c>
-      <c r="P92" s="7">
+      <c r="P92" s="13">
         <v>31.46</v>
       </c>
-      <c r="Q92" s="7">
+      <c r="Q92" s="13">
         <v>165.2</v>
       </c>
-      <c r="R92" s="7">
+      <c r="R92" s="13">
         <v>1.6619999999999999</v>
       </c>
-      <c r="S92" s="7">
+      <c r="S92" s="13">
         <v>17.059999999999999</v>
       </c>
-      <c r="T92" s="7">
+      <c r="T92" s="13">
         <v>161.69999999999999</v>
       </c>
-      <c r="U92" s="8">
+      <c r="U92" s="14">
         <v>3.7553948769687802</v>
       </c>
-      <c r="V92" s="8">
+      <c r="V92" s="14">
         <v>0.246376241464</v>
       </c>
-      <c r="W92" s="8">
+      <c r="W92" s="14">
         <v>0.17881915133820001</v>
       </c>
-      <c r="X92" s="8">
+      <c r="X92" s="14">
         <v>0.29183728511731999</v>
       </c>
-      <c r="Y92" s="8">
+      <c r="Y92" s="14">
         <v>0.15816863181269</v>
       </c>
-      <c r="Z92" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA92" s="8">
+      <c r="Z92" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="14">
         <v>6.5627419159275098</v>
       </c>
-      <c r="AB92" s="8">
+      <c r="AB92" s="14">
         <v>75.254391742590997</v>
       </c>
-      <c r="AC92" s="8">
+      <c r="AC92" s="14">
         <v>3.4254574655412</v>
       </c>
-      <c r="AD92" s="8">
+      <c r="AD92" s="14">
         <v>0.2442888382882</v>
       </c>
-      <c r="AE92" s="9">
+      <c r="AE92" s="15">
         <v>151.159471381987</v>
       </c>
     </row>
@@ -9813,98 +9853,98 @@
         <v>6.26330013090005</v>
       </c>
     </row>
-    <row r="95" spans="1:31">
-      <c r="A95" s="6" t="s">
+    <row r="95" spans="1:31" s="16" customFormat="1">
+      <c r="A95" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="13">
         <v>3947</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="13">
         <v>1.7609999999999999</v>
       </c>
-      <c r="D95" s="7">
-        <v>0</v>
-      </c>
-      <c r="E95" s="7">
+      <c r="D95" s="13">
+        <v>0</v>
+      </c>
+      <c r="E95" s="13">
         <v>24270</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="13">
         <v>0.84219999999999995</v>
       </c>
-      <c r="G95" s="7">
+      <c r="G95" s="13">
         <v>4.04</v>
       </c>
-      <c r="H95" s="7">
+      <c r="H95" s="13">
         <v>77.84</v>
       </c>
-      <c r="I95" s="7">
+      <c r="I95" s="13">
         <v>216.4</v>
       </c>
-      <c r="J95" s="7">
+      <c r="J95" s="13">
         <v>15110</v>
       </c>
-      <c r="K95" s="7">
+      <c r="K95" s="13">
         <v>0.42399999999999999</v>
       </c>
-      <c r="L95" s="7">
+      <c r="L95" s="13">
         <v>581.29999999999995</v>
       </c>
-      <c r="M95" s="7">
+      <c r="M95" s="13">
         <v>7819</v>
       </c>
-      <c r="N95" s="7">
+      <c r="N95" s="13">
         <v>241.6</v>
       </c>
-      <c r="O95" s="7">
+      <c r="O95" s="13">
         <v>159.19999999999999</v>
       </c>
-      <c r="P95" s="7">
+      <c r="P95" s="13">
         <v>37.869999999999997</v>
       </c>
-      <c r="Q95" s="7">
+      <c r="Q95" s="13">
         <v>168.2</v>
       </c>
-      <c r="R95" s="7">
+      <c r="R95" s="13">
         <v>0.42130000000000001</v>
       </c>
-      <c r="S95" s="7">
+      <c r="S95" s="13">
         <v>14.71</v>
       </c>
-      <c r="T95" s="7">
+      <c r="T95" s="13">
         <v>332</v>
       </c>
-      <c r="U95" s="8">
+      <c r="U95" s="14">
         <v>1.8731588979379701</v>
       </c>
-      <c r="V95" s="8">
+      <c r="V95" s="14">
         <v>0.56978816617000005</v>
       </c>
-      <c r="W95" s="8">
+      <c r="W95" s="14">
         <v>0.29677416728520001</v>
       </c>
-      <c r="X95" s="8">
+      <c r="X95" s="14">
         <v>0.14281679523662</v>
       </c>
-      <c r="Y95" s="8">
+      <c r="Y95" s="14">
         <v>0.57791957462267995</v>
       </c>
-      <c r="Z95" s="8">
+      <c r="Z95" s="14">
         <v>0.16935574186699001</v>
       </c>
-      <c r="AA95" s="8">
+      <c r="AA95" s="14">
         <v>0.3368137377273</v>
       </c>
-      <c r="AB95" s="8">
+      <c r="AB95" s="14">
         <v>0.45193863648285298</v>
       </c>
-      <c r="AC95" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD95" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE95" s="9">
+      <c r="AC95" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="15">
         <v>275.57186817964299</v>
       </c>
     </row>
